--- a/Examples/Data/Data Sources/Excel DataSource/Contracts Data.xlsx
+++ b/Examples/Data/Data Sources/Excel DataSource/Contracts Data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
@@ -58,13 +58,13 @@
     <t>July James</t>
   </si>
   <si>
-    <t>Contract Price</t>
+    <t>Price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -199,6 +199,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -234,6 +251,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -409,20 +443,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="3" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="3" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +467,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -444,7 +478,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -455,7 +489,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -466,7 +500,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -477,7 +511,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -488,7 +522,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -499,7 +533,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -510,7 +544,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -521,7 +555,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
